--- a/LOW.xlsx
+++ b/LOW.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyjiao/Desktop/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42449A8-D061-F847-A1F2-A67EAF0BF11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9788359-64CE-FF4F-A54A-D36D5C64AD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{48A6DEA3-2AA3-8E4B-9688-69F5A6B3D937}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="3" xr2:uid="{48A6DEA3-2AA3-8E4B-9688-69F5A6B3D937}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="2" r:id="rId1"/>
     <sheet name="Financials + KPIs" sheetId="1" r:id="rId2"/>
     <sheet name="WACC" sheetId="4" r:id="rId3"/>
+    <sheet name="Metrics" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="178">
   <si>
     <t>Net sales</t>
   </si>
@@ -507,13 +508,115 @@
   </si>
   <si>
     <t>Total transaction volume</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Pop. (m)</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Rev per store</t>
+  </si>
+  <si>
+    <t>Store / MM Pop.</t>
+  </si>
+  <si>
+    <t>Avg. Ticket</t>
+  </si>
+  <si>
+    <t>Source: 2021 - 10K</t>
+  </si>
+  <si>
+    <t>Volume per store</t>
+  </si>
+  <si>
+    <t>Empl. per store</t>
+  </si>
+  <si>
+    <t>GDP per capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LOW: Only corporate store</t>
+  </si>
+  <si>
+    <t>Corporate Store</t>
+  </si>
+  <si>
+    <t>Franchise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LOW: Canada assume only corporate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LOW: Assume only corporate store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LOW: Canada assume franchise + corporate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HD: Assume 2/3 goes to CAN, and 1/3 goes to MEX</t>
+  </si>
+  <si>
+    <t>Average visit per year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Assume only U.S.</t>
+  </si>
+  <si>
+    <t>Rev per empl.</t>
+  </si>
+  <si>
+    <t>Average spent per year</t>
+  </si>
+  <si>
+    <t>Spent as % of GDP per capita</t>
+  </si>
+  <si>
+    <t>EBIT Margins</t>
+  </si>
+  <si>
+    <t>Metrics Deepdive 2021</t>
+  </si>
+  <si>
+    <t>Total Transaction Volume</t>
+  </si>
+  <si>
+    <t>Volume based on Rev</t>
+  </si>
+  <si>
+    <t>Headcount based on Rev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Headcount</t>
+  </si>
+  <si>
+    <t>EBIT per ticket year</t>
+  </si>
+  <si>
+    <t>Avg. Home Price</t>
+  </si>
+  <si>
+    <t>Spent as % of home price</t>
+  </si>
+  <si>
+    <t>Sales per retail square foot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HD net sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="General\A"/>
@@ -525,8 +628,9 @@
     <numFmt numFmtId="170" formatCode="0.0\x"/>
     <numFmt numFmtId="171" formatCode="#,##0.0"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -727,8 +831,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,8 +869,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -876,6 +1006,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -888,7 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1138,6 +1434,99 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,12 +1536,24 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1233,15 +1634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1255,9 +1656,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16268700" y="0"/>
-          <a:ext cx="12700" cy="12077700"/>
+        <a:xfrm flipH="1">
+          <a:off x="16256000" y="0"/>
+          <a:ext cx="12700" cy="12255500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1406,10 +1807,8 @@
     <v>238.37</v>
     <v>170.12</v>
     <v>1.0894999999999999</v>
-    <v>0.14000000000000001</v>
-    <v>6.7100000000000005E-4</v>
-    <v>0</v>
-    <v>0</v>
+    <v>3.6875</v>
+    <v>1.7662000000000001E-2</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. is a home improvement company. The Company operates home improvement and hardware stores. It offers a range of products in departments, including appliances; bathroom; building supplies; cleaning and pet supplies; doors and windows; electrical; flooring and rugs; hardware; heating and cooling; home decor and furniture; kitchen; lawn and garden; lighting and ceiling fans; molding and millwork; outdoor living and patio; paint; plumbing; smart home, security, wireless fidelity (Wi-Fi); sports and fitness; storage and organization; tools; accessible home; animal and pet care; automotive, and holiday decorations. The Company offers installation and services for the bathroom; doors and windows; exterior home; flooring; heating and cooling; home accessibility; interior home, and kitchen. It offers products and services through its contact centers, in-store, online, or through its mobile application. It operates over 1,700 home improvement stores in the United States.</v>
     <v>200000</v>
@@ -1417,25 +1816,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>208.93</v>
+    <v>212.6463</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44967.995337638284</v>
+    <v>44970.828096457815</v>
     <v>0</v>
-    <v>206.33</v>
-    <v>126249800000</v>
+    <v>207.43</v>
+    <v>128479649665</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>207.46</v>
+    <v>209.39</v>
     <v>20.472000000000001</v>
-    <v>208.64</v>
     <v>208.78</v>
-    <v>208.78</v>
+    <v>212.4675</v>
     <v>604702600</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>1836457</v>
-    <v>2974825</v>
+    <v>1182663</v>
+    <v>2970594</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -1467,8 +1865,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1489,7 +1885,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1506,7 +1901,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1517,16 +1912,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1592,19 +1984,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1649,9 +2035,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1659,9 +2042,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2022,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586738EE-8971-CF4A-ADEA-FE85E053C0FD}">
   <dimension ref="A2:AA148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2440,7 @@
       </c>
       <c r="G4" s="22">
         <f ca="1">D114</f>
-        <v>329.73066892006688</v>
+        <v>328.61947100292861</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>30</v>
@@ -2079,7 +2459,7 @@
       </c>
       <c r="S4" s="26">
         <f ca="1">((G4*(1+((1/T100)^(1/10)-1))^10)/G5)^(1/10)-1</f>
-        <v>0.12360407508511639</v>
+        <v>0.12143383564655807</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2094,7 +2474,7 @@
       </c>
       <c r="G5" s="25" cm="1">
         <f t="array" ref="G5">_FV('Financials + KPIs'!B1,"price")</f>
-        <v>208.78</v>
+        <v>212.4675</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>34</v>
@@ -2107,7 +2487,7 @@
       </c>
       <c r="O5" s="26">
         <f ca="1">G4/G5-1</f>
-        <v>0.57932114627869957</v>
+        <v>0.54668112065576424</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2416,21 +2796,21 @@
       </c>
       <c r="H18" s="36">
         <f>L18-0.5%</f>
-        <v>7.3416285834826595E-2</v>
+        <v>7.3582678555292894E-2</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>53</v>
       </c>
       <c r="L18" s="41">
         <f>WACC!F22</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
       <c r="N18" s="20" t="s">
         <v>53</v>
       </c>
       <c r="P18" s="36">
         <f>L18+0.5%</f>
-        <v>8.3416285834826603E-2</v>
+        <v>8.3582678555292902E-2</v>
       </c>
       <c r="R18" s="20" t="s">
         <v>50</v>
@@ -2509,7 +2889,7 @@
       <c r="S20" s="32"/>
       <c r="T20" s="38">
         <f>K99-1%</f>
-        <v>6.8416285834826604E-2</v>
+        <v>6.8582678555292903E-2</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="32" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2534,7 +2914,7 @@
       </c>
       <c r="D23" s="36">
         <f>CHOOSE(D18,H18,L18,P18,H23)</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>53</v>
@@ -3702,7 +4082,7 @@
         <v>0.03</v>
       </c>
       <c r="N49" s="59">
-        <f t="shared" ref="M49:U50" si="21">M49</f>
+        <f t="shared" ref="N49:U50" si="21">M49</f>
         <v>0.03</v>
       </c>
       <c r="O49" s="59">
@@ -3805,80 +4185,80 @@
       <c r="J52" s="64"/>
     </row>
     <row r="53" spans="1:21" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="188" t="s">
+      <c r="B53" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="189">
+      <c r="E53" s="185">
         <f>E55/E29</f>
         <v>30.538750587130107</v>
       </c>
-      <c r="F53" s="189">
+      <c r="F53" s="185">
         <f t="shared" ref="F53:U53" si="22">F55/F29</f>
         <v>31.886152416356879</v>
       </c>
-      <c r="G53" s="189">
+      <c r="G53" s="185">
         <f t="shared" si="22"/>
         <v>35.389081885856079</v>
       </c>
-      <c r="H53" s="189">
+      <c r="H53" s="185">
         <f t="shared" si="22"/>
         <v>36.493677288821445</v>
       </c>
-      <c r="I53" s="189">
+      <c r="I53" s="185">
         <f t="shared" si="22"/>
         <v>45.388551165146907</v>
       </c>
-      <c r="J53" s="190">
+      <c r="J53" s="186">
         <f t="shared" si="22"/>
         <v>48.833079654997462</v>
       </c>
-      <c r="K53" s="189">
+      <c r="K53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>49.303288685946221</v>
       </c>
-      <c r="L53" s="189">
+      <c r="L53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>53.839191245053271</v>
       </c>
-      <c r="M53" s="189">
+      <c r="M53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>55.454366982404878</v>
       </c>
-      <c r="N53" s="189">
+      <c r="N53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>57.117997991877019</v>
       </c>
-      <c r="O53" s="189">
+      <c r="O53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>58.831537931633335</v>
       </c>
-      <c r="P53" s="189">
+      <c r="P53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>60.596484069582345</v>
       </c>
-      <c r="Q53" s="189">
+      <c r="Q53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>62.414378591669809</v>
       </c>
-      <c r="R53" s="189">
+      <c r="R53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>64.286809949419904</v>
       </c>
-      <c r="S53" s="189">
+      <c r="S53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>66.215414247902515</v>
       </c>
-      <c r="T53" s="189">
+      <c r="T53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>68.201876675339591</v>
       </c>
-      <c r="U53" s="189">
+      <c r="U53" s="185">
         <f t="shared" ca="1" si="22"/>
         <v>70.247932975599795</v>
       </c>
     </row>
     <row r="54" spans="1:21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J54" s="191"/>
+      <c r="J54" s="187"/>
     </row>
     <row r="55" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="65" t="s">
@@ -6087,7 +6467,7 @@
       <c r="J96" s="56"/>
       <c r="T96" s="52">
         <f ca="1">T94*(1+D24)/(T99-D24)</f>
-        <v>358260.72808930808</v>
+        <v>356715.68302206148</v>
       </c>
     </row>
     <row r="97" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6123,7 +6503,7 @@
       <c r="S98" s="102"/>
       <c r="T98" s="101">
         <f ca="1">AVERAGE(T96:T97)</f>
-        <v>325449.00373573281</v>
+        <v>324676.48120210948</v>
       </c>
     </row>
     <row r="99" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6133,43 +6513,43 @@
       <c r="J99" s="56"/>
       <c r="K99" s="104">
         <f>D23</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
       <c r="L99" s="105">
         <f t="shared" ref="L99:S99" si="82">K99-($K$99-$T$99)/($T$92-$K$92)</f>
-        <v>7.7305174723715495E-2</v>
+        <v>7.7471567444181794E-2</v>
       </c>
       <c r="M99" s="105">
         <f t="shared" si="82"/>
-        <v>7.619406361260439E-2</v>
+        <v>7.6360456333070689E-2</v>
       </c>
       <c r="N99" s="105">
         <f t="shared" si="82"/>
-        <v>7.5082952501493286E-2</v>
+        <v>7.5249345221959585E-2</v>
       </c>
       <c r="O99" s="105">
         <f t="shared" si="82"/>
-        <v>7.3971841390382181E-2</v>
+        <v>7.413823411084848E-2</v>
       </c>
       <c r="P99" s="105">
         <f t="shared" si="82"/>
-        <v>7.2860730279271077E-2</v>
+        <v>7.3027122999737376E-2</v>
       </c>
       <c r="Q99" s="105">
         <f t="shared" si="82"/>
-        <v>7.1749619168159973E-2</v>
+        <v>7.1916011888626272E-2</v>
       </c>
       <c r="R99" s="105">
         <f t="shared" si="82"/>
-        <v>7.0638508057048868E-2</v>
+        <v>7.0804900777515167E-2</v>
       </c>
       <c r="S99" s="105">
         <f t="shared" si="82"/>
-        <v>6.9527396945937764E-2</v>
+        <v>6.9693789666404063E-2</v>
       </c>
       <c r="T99" s="104">
         <f>T20</f>
-        <v>6.8416285834826604E-2</v>
+        <v>6.8582678555292903E-2</v>
       </c>
     </row>
     <row r="100" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6179,43 +6559,43 @@
       <c r="J100" s="56"/>
       <c r="K100" s="106">
         <f>1/(1+K99)</f>
-        <v>0.92728569953473705</v>
+        <v>0.92714264736705165</v>
       </c>
       <c r="L100" s="106">
         <f>K100*(1/(1+L99))</f>
-        <v>0.86074560977816494</v>
+        <v>0.86047991926718026</v>
       </c>
       <c r="M100" s="106">
         <f t="shared" ref="M100:T100" si="83">L100*(1/(1+M99))</f>
-        <v>0.79980520138606337</v>
+        <v>0.79943471929343346</v>
       </c>
       <c r="N100" s="106">
         <f t="shared" si="83"/>
-        <v>0.74394743170755695</v>
+        <v>0.74348775272065781</v>
       </c>
       <c r="O100" s="106">
         <f t="shared" si="83"/>
-        <v>0.6927066455899159</v>
+        <v>0.69217138829072877</v>
       </c>
       <c r="P100" s="106">
         <f t="shared" si="83"/>
-        <v>0.64566315649338835</v>
+        <v>0.64506420523248797</v>
       </c>
       <c r="Q100" s="106">
         <f t="shared" si="83"/>
-        <v>0.60243842866444941</v>
+        <v>0.60178614562902077</v>
       </c>
       <c r="R100" s="106">
         <f t="shared" si="83"/>
-        <v>0.56269079071117112</v>
+        <v>0.56199420192423644</v>
       </c>
       <c r="S100" s="106">
         <f t="shared" si="83"/>
-        <v>0.52611161931704475</v>
+        <v>0.52537857782599695</v>
       </c>
       <c r="T100" s="106">
         <f t="shared" si="83"/>
-        <v>0.49242193917510146</v>
+        <v>0.49165926827140843</v>
       </c>
     </row>
     <row r="101" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6235,43 +6615,43 @@
       <c r="J102" s="107"/>
       <c r="K102" s="108">
         <f t="shared" ref="K102:T102" ca="1" si="84">K100*K94</f>
-        <v>8187.6671946757851</v>
+        <v>8186.4040849987214</v>
       </c>
       <c r="L102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>8313.8294776927924</v>
+        <v>8311.263207732105</v>
       </c>
       <c r="M102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>8089.0047811496679</v>
+        <v>8085.2578295001667</v>
       </c>
       <c r="N102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>7784.4641905827721</v>
+        <v>7779.6542343141327</v>
       </c>
       <c r="O102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>7681.9937048745915</v>
+        <v>7676.0577964651347</v>
       </c>
       <c r="P102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>7323.4827456108824</v>
+        <v>7316.6890960421379</v>
       </c>
       <c r="Q102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>7054.1541849708365</v>
+        <v>7046.5163835205622</v>
       </c>
       <c r="R102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>6917.0150138683075</v>
+        <v>6908.4520247857427</v>
       </c>
       <c r="S102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>6751.3427856692761</v>
+        <v>6741.9360092353963</v>
       </c>
       <c r="T102" s="108">
         <f t="shared" ca="1" si="84"/>
-        <v>6579.8311291921364</v>
+        <v>6569.640182456792</v>
       </c>
     </row>
     <row r="103" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6280,7 +6660,7 @@
       </c>
       <c r="T103" s="52">
         <f ca="1">T100*T98</f>
-        <v>160258.2295221544</v>
+        <v>159630.20117276485</v>
       </c>
     </row>
     <row r="105" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6290,7 +6670,7 @@
       <c r="C105" s="66"/>
       <c r="D105" s="67">
         <f ca="1">SUM(K102:T103)</f>
-        <v>234941.01473044147</v>
+        <v>234252.07202181575</v>
       </c>
     </row>
     <row r="107" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6339,7 +6719,7 @@
       <c r="C111" s="66"/>
       <c r="D111" s="111">
         <f ca="1">D105+D107+D108-D109-D110</f>
-        <v>204433.01473044147</v>
+        <v>203744.07202181575</v>
       </c>
     </row>
     <row r="112" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6361,7 +6741,7 @@
       </c>
       <c r="D114" s="114">
         <f ca="1">D111/D113</f>
-        <v>329.73066892006688</v>
+        <v>328.61947100292861</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6425,7 +6805,7 @@
       </c>
       <c r="D119" s="117">
         <f>D23</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
       <c r="F119" s="20" t="s">
         <v>92</v>
@@ -6438,7 +6818,7 @@
       </c>
       <c r="L119" s="117">
         <f>D23</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
       <c r="N119" s="20" t="s">
         <v>92</v>
@@ -6448,37 +6828,37 @@
       </c>
     </row>
     <row r="121" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="183" t="s">
+      <c r="D121" s="220" t="s">
         <v>54</v>
       </c>
-      <c r="E121" s="183"/>
-      <c r="F121" s="183"/>
-      <c r="G121" s="183"/>
-      <c r="H121" s="183"/>
-      <c r="L121" s="183" t="s">
+      <c r="E121" s="220"/>
+      <c r="F121" s="220"/>
+      <c r="G121" s="220"/>
+      <c r="H121" s="220"/>
+      <c r="L121" s="220" t="s">
         <v>55</v>
       </c>
-      <c r="M121" s="183"/>
-      <c r="N121" s="183"/>
-      <c r="O121" s="183"/>
-      <c r="P121" s="183"/>
+      <c r="M121" s="220"/>
+      <c r="N121" s="220"/>
+      <c r="O121" s="220"/>
+      <c r="P121" s="220"/>
     </row>
     <row r="122" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D122" s="183"/>
-      <c r="E122" s="183"/>
-      <c r="F122" s="183"/>
-      <c r="G122" s="183"/>
-      <c r="H122" s="183"/>
-      <c r="L122" s="183"/>
-      <c r="M122" s="183"/>
-      <c r="N122" s="183"/>
-      <c r="O122" s="183"/>
-      <c r="P122" s="183"/>
+      <c r="D122" s="220"/>
+      <c r="E122" s="220"/>
+      <c r="F122" s="220"/>
+      <c r="G122" s="220"/>
+      <c r="H122" s="220"/>
+      <c r="L122" s="220"/>
+      <c r="M122" s="220"/>
+      <c r="N122" s="220"/>
+      <c r="O122" s="220"/>
+      <c r="P122" s="220"/>
     </row>
     <row r="123" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="181">
         <f ca="1">D114</f>
-        <v>329.73066892006688</v>
+        <v>328.61947100292861</v>
       </c>
       <c r="D123" s="120">
         <f>E123-H118</f>
@@ -6502,7 +6882,7 @@
       </c>
       <c r="K123" s="181">
         <f ca="1">D114</f>
-        <v>329.73066892006688</v>
+        <v>328.61947100292861</v>
       </c>
       <c r="L123" s="122">
         <f>M123-P118</f>
@@ -6526,219 +6906,219 @@
       </c>
     </row>
     <row r="124" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="183" t="s">
+      <c r="B124" s="220" t="s">
         <v>53</v>
       </c>
       <c r="C124" s="123">
         <f>C125-H119</f>
-        <v>6.841628583482659E-2</v>
+        <v>6.8582678555292889E-2</v>
       </c>
       <c r="D124" s="106">
         <f t="dataTable" ref="D124:H128" dt2D="1" dtr="1" r1="D24" r2="D23" ca="1"/>
-        <v>359.70553655089907</v>
+        <v>358.49224518688669</v>
       </c>
       <c r="E124" s="106">
-        <v>383.72675994503771</v>
+        <v>382.25789767295919</v>
       </c>
       <c r="F124" s="106">
-        <v>416.20131307190974</v>
+        <v>414.33825461897163</v>
       </c>
       <c r="G124" s="106">
-        <v>462.54422831049322</v>
+        <v>460.02196746486436</v>
       </c>
       <c r="H124" s="106">
-        <v>534.05123779382711</v>
-      </c>
-      <c r="J124" s="183" t="s">
+        <v>530.28971038476448</v>
+      </c>
+      <c r="J124" s="220" t="s">
         <v>53</v>
       </c>
       <c r="K124" s="123">
         <f>K125-P119</f>
-        <v>6.841628583482659E-2</v>
+        <v>6.8582678555292889E-2</v>
       </c>
       <c r="L124" s="106">
         <f t="dataTable" ref="L124:P128" dt2D="1" dtr="1" r1="D25" r2="D23" ca="1"/>
-        <v>407.69378887006991</v>
+        <v>405.84403080916888</v>
       </c>
       <c r="M124" s="106">
-        <v>411.94755097098971</v>
+        <v>410.09114271407037</v>
       </c>
       <c r="N124" s="106">
-        <v>416.20131307190974</v>
+        <v>414.33825461897163</v>
       </c>
       <c r="O124" s="106">
-        <v>420.45507517282965</v>
+        <v>418.58536652387306</v>
       </c>
       <c r="P124" s="106">
-        <v>424.70883727374962</v>
+        <v>422.83247842877432</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="183"/>
+      <c r="B125" s="220"/>
       <c r="C125" s="123">
         <f>C126-H119</f>
-        <v>7.3416285834826595E-2</v>
+        <v>7.3582678555292894E-2</v>
       </c>
       <c r="D125" s="106">
-        <v>326.64569903110117</v>
+        <v>325.6531395564437</v>
       </c>
       <c r="E125" s="124">
-        <v>344.37025318790995</v>
+        <v>343.20926615108698</v>
       </c>
       <c r="F125" s="124">
-        <v>367.39897377554814</v>
+        <v>365.99312541920892</v>
       </c>
       <c r="G125" s="124">
-        <v>398.53175156527658</v>
+        <v>396.74819677091739</v>
       </c>
       <c r="H125" s="106">
-        <v>442.95988200372665</v>
-      </c>
-      <c r="J125" s="183"/>
+        <v>440.54464986371966</v>
+      </c>
+      <c r="J125" s="220"/>
       <c r="K125" s="123">
         <f>K126-P119</f>
-        <v>7.3416285834826595E-2</v>
+        <v>7.3582678555292894E-2</v>
       </c>
       <c r="L125" s="106">
-        <v>359.28130946190413</v>
+        <v>357.88809266171194</v>
       </c>
       <c r="M125" s="124">
-        <v>363.34014161872614</v>
+        <v>361.9406090404604</v>
       </c>
       <c r="N125" s="124">
-        <v>367.39897377554814</v>
+        <v>365.99312541920892</v>
       </c>
       <c r="O125" s="124">
-        <v>371.45780593237009</v>
+        <v>370.0456417979575</v>
       </c>
       <c r="P125" s="106">
-        <v>375.51663808919199</v>
+        <v>374.09815817670597</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="183"/>
+      <c r="B126" s="220"/>
       <c r="C126" s="123">
         <f>CHOOSE(D18,H18,L18,P18,H23)</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
       <c r="D126" s="106">
-        <v>299.24984392660826</v>
+        <v>298.41618474868574</v>
       </c>
       <c r="E126" s="124">
-        <v>312.73510715116004</v>
+        <v>311.78529976742544</v>
       </c>
       <c r="F126" s="125">
-        <v>329.73066892006688</v>
+        <v>328.61947100292861</v>
       </c>
       <c r="G126" s="124">
-        <v>351.81224229807776</v>
+        <v>350.46639641996194</v>
       </c>
       <c r="H126" s="106">
-        <v>381.66456147529794</v>
-      </c>
-      <c r="J126" s="183"/>
+        <v>379.95673614289075</v>
+      </c>
+      <c r="J126" s="220"/>
       <c r="K126" s="123">
         <f>CHOOSE(D18,H18,L18,P18,H23)</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
       <c r="L126" s="106">
-        <v>321.98330243682557</v>
+        <v>320.88410376368313</v>
       </c>
       <c r="M126" s="124">
-        <v>325.85698567844622</v>
+        <v>324.75178738330584</v>
       </c>
       <c r="N126" s="125">
-        <v>329.73066892006688</v>
+        <v>328.61947100292861</v>
       </c>
       <c r="O126" s="124">
-        <v>333.60435216168747</v>
+        <v>332.48715462255143</v>
       </c>
       <c r="P126" s="106">
-        <v>337.47803540330818</v>
+        <v>336.35483824217425</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="183"/>
+      <c r="B127" s="220"/>
       <c r="C127" s="123">
         <f>C126+H119</f>
-        <v>8.3416285834826603E-2</v>
+        <v>8.3582678555292902E-2</v>
       </c>
       <c r="D127" s="106">
-        <v>276.00657634378888</v>
+        <v>275.29179168897059</v>
       </c>
       <c r="E127" s="124">
-        <v>286.51852751651683</v>
+        <v>285.72072499490429</v>
       </c>
       <c r="F127" s="124">
-        <v>299.45167869993196</v>
+        <v>298.54256613753802</v>
       </c>
       <c r="G127" s="124">
-        <v>315.75141020269962</v>
+        <v>314.687619048442</v>
       </c>
       <c r="H127" s="106">
-        <v>336.92892243290544</v>
-      </c>
-      <c r="J127" s="183"/>
+        <v>335.6402256166046</v>
+      </c>
+      <c r="J127" s="220"/>
       <c r="K127" s="123">
         <f>K126+P119</f>
-        <v>8.3416285834826603E-2</v>
+        <v>8.3582678555292902E-2</v>
       </c>
       <c r="L127" s="106">
-        <v>292.0561139130657</v>
+        <v>291.15840265538577</v>
       </c>
       <c r="M127" s="124">
-        <v>295.7538963064988</v>
+        <v>294.85048439646187</v>
       </c>
       <c r="N127" s="124">
-        <v>299.45167869993196</v>
+        <v>298.54256613753802</v>
       </c>
       <c r="O127" s="124">
-        <v>303.14946109336506</v>
+        <v>302.23464787861411</v>
       </c>
       <c r="P127" s="106">
-        <v>306.84724348679816</v>
+        <v>305.92672961969032</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="183"/>
+      <c r="B128" s="220"/>
       <c r="C128" s="123">
         <f>C127+H119</f>
-        <v>8.8416285834826608E-2</v>
+        <v>8.8582678555292907E-2</v>
       </c>
       <c r="D128" s="106">
-        <v>255.91672820820943</v>
+        <v>255.29371194900691</v>
       </c>
       <c r="E128" s="106">
-        <v>264.27410012174562</v>
+        <v>263.58999890765108</v>
       </c>
       <c r="F128" s="106">
-        <v>274.35762094766375</v>
+        <v>273.59394942156882</v>
       </c>
       <c r="G128" s="106">
-        <v>286.76366214399781</v>
+        <v>285.89329591515906</v>
       </c>
       <c r="H128" s="106">
-        <v>302.39907362606795</v>
-      </c>
-      <c r="J128" s="183"/>
+        <v>301.38043209939093</v>
+      </c>
+      <c r="J128" s="220"/>
       <c r="K128" s="123">
         <f>K127+P119</f>
-        <v>8.8416285834826608E-2</v>
+        <v>8.8582678555292907E-2</v>
       </c>
       <c r="L128" s="106">
-        <v>267.29636501062959</v>
+        <v>266.54352920775688</v>
       </c>
       <c r="M128" s="106">
-        <v>270.82699297914667</v>
+        <v>270.06873931466288</v>
       </c>
       <c r="N128" s="106">
-        <v>274.35762094766375</v>
+        <v>273.59394942156882</v>
       </c>
       <c r="O128" s="106">
-        <v>277.88824891618083</v>
+        <v>277.11915952847482</v>
       </c>
       <c r="P128" s="106">
-        <v>281.41887688469791</v>
+        <v>280.64436963538077</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8010,10 +8390,10 @@
   <dimension ref="B1:AG72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG11" sqref="AD9:AG11"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8703,9 +9083,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="186"/>
+      <c r="AE10" s="183"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="187"/>
+      <c r="AG10" s="184"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
@@ -8732,7 +9112,7 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="187"/>
+      <c r="AG11" s="184"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -11700,7 +12080,7 @@
       <c r="V72" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g4PVCYLhYdOcFHrFrSAu+bfygz5jCU7sfvNDcOsNzme1pKWrhCoGYhIizIMjKqtYgnWzPtvZ/e9Ofm3KBvDXMQ==" saltValue="xtNwcPkxFR9jTfCQfRUp3Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PyTEk557KlFclVt1mfiWxhHd6POF4CLA3NVLx8ft5Jon23+eiyqduzIyCbOuifVG+YLwctyAS6vg8hDPkwMnuA==" saltValue="3vUAJB8u3a2gbGA3fbCwfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -11774,13 +12154,13 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" s="136" t="s">
@@ -11788,7 +12168,7 @@
       </c>
       <c r="F9" s="137">
         <f>DCF!G5*DCF!D113</f>
-        <v>129443.6</v>
+        <v>131729.85</v>
       </c>
       <c r="I9" s="137"/>
     </row>
@@ -11828,7 +12208,7 @@
       <c r="E13" s="140"/>
       <c r="F13" s="141">
         <f>(F10)/(F10+F9)</f>
-        <v>0.20881670533642691</v>
+        <v>0.2059389181696609</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -11877,7 +12257,7 @@
       <c r="E19" s="140"/>
       <c r="F19" s="141">
         <f>1-F13</f>
-        <v>0.79118329466357307</v>
+        <v>0.79406108183033908</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -11898,7 +12278,7 @@
       <c r="E22" s="148"/>
       <c r="F22" s="149">
         <f>F14*F13+F20*F19</f>
-        <v>7.8416285834826599E-2</v>
+        <v>7.8582678555292898E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11909,4 +12289,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86D0854-CE0F-AF42-9F99-E9A416997C81}">
+  <dimension ref="B1:H29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="226" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="228"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="212" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="223" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="225"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="188"/>
+      <c r="C4" s="204" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="204" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="204" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="205" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="188" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="207">
+        <v>331.9</v>
+      </c>
+      <c r="D5" s="207">
+        <v>38.25</v>
+      </c>
+      <c r="E5" s="207">
+        <v>331.9</v>
+      </c>
+      <c r="F5" s="208">
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="188" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="209">
+        <v>70248</v>
+      </c>
+      <c r="D6" s="209">
+        <v>51987</v>
+      </c>
+      <c r="E6" s="209">
+        <v>70248</v>
+      </c>
+      <c r="F6" s="210">
+        <v>51987</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="188" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="195">
+        <v>346900</v>
+      </c>
+      <c r="D7" s="195">
+        <v>551816</v>
+      </c>
+      <c r="E7" s="195">
+        <v>346900</v>
+      </c>
+      <c r="F7" s="211">
+        <v>551816</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="188" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="195">
+        <v>1738</v>
+      </c>
+      <c r="D8" s="195">
+        <v>231</v>
+      </c>
+      <c r="E8" s="195">
+        <v>2006</v>
+      </c>
+      <c r="F8" s="189">
+        <v>182</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="188" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195">
+        <f>470-D8</f>
+        <v>239</v>
+      </c>
+      <c r="E9" s="195"/>
+      <c r="F9" s="189"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="188" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="195">
+        <f>93%*'Financials + KPIs'!R15</f>
+        <v>89512.5</v>
+      </c>
+      <c r="D10" s="195">
+        <f>7%*'Financials + KPIs'!R15</f>
+        <v>6737.5000000000009</v>
+      </c>
+      <c r="E10" s="200">
+        <v>138920</v>
+      </c>
+      <c r="F10" s="190">
+        <f>12237*2/3</f>
+        <v>8158</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="196">
+        <f>'Financials + KPIs'!R12</f>
+        <v>96.057884231536931</v>
+      </c>
+      <c r="D11" s="213"/>
+      <c r="E11" s="196">
+        <v>83.04</v>
+      </c>
+      <c r="F11" s="190"/>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="2">
+        <v>151157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="195">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195">
+        <v>1759.7</v>
+      </c>
+      <c r="F12" s="191"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="188" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="195">
+        <f>C12*93%</f>
+        <v>931.86</v>
+      </c>
+      <c r="D13" s="195">
+        <f>C12*7%</f>
+        <v>70.14</v>
+      </c>
+      <c r="E13" s="195">
+        <f>E12*E10/H11</f>
+        <v>1617.2424962125472</v>
+      </c>
+      <c r="F13" s="211">
+        <f>E12*F10/H11</f>
+        <v>94.971669191635186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="197">
+        <f>'Financials + KPIs'!R32</f>
+        <v>0.12564155844155844</v>
+      </c>
+      <c r="D14" s="197">
+        <f>C14-(100/7)*0.6%</f>
+        <v>3.9927272727272728E-2</v>
+      </c>
+      <c r="E14" s="201">
+        <f>23040/151157</f>
+        <v>0.15242430056166767</v>
+      </c>
+      <c r="F14" s="190"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="188" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="196">
+        <f>SUM(C10:D10)/208</f>
+        <v>462.74038461538464</v>
+      </c>
+      <c r="D15" s="197"/>
+      <c r="E15" s="219">
+        <v>604.74</v>
+      </c>
+      <c r="F15" s="190"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="188" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="195">
+        <v>340000</v>
+      </c>
+      <c r="D16" s="206"/>
+      <c r="E16" s="200">
+        <v>490600</v>
+      </c>
+      <c r="F16" s="192"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="188" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="195">
+        <f>C16*93%</f>
+        <v>316200</v>
+      </c>
+      <c r="D17" s="195">
+        <f>C16*7%</f>
+        <v>23800.000000000004</v>
+      </c>
+      <c r="E17" s="198">
+        <f>E16*(E10/H11)</f>
+        <v>450883.20091031177</v>
+      </c>
+      <c r="F17" s="211">
+        <f>E16*(F10/H11)</f>
+        <v>26477.866059792137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="199">
+        <f>C8/C5</f>
+        <v>5.2365170231997595</v>
+      </c>
+      <c r="D18" s="199">
+        <f>(D8+D9)/D5</f>
+        <v>12.287581699346406</v>
+      </c>
+      <c r="E18" s="199">
+        <f>E8/E5</f>
+        <v>6.0439891533594459</v>
+      </c>
+      <c r="F18" s="193">
+        <f>F8/F5</f>
+        <v>4.7581699346405228</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="188" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="199">
+        <f>C10/C8</f>
+        <v>51.503164556962027</v>
+      </c>
+      <c r="D19" s="199">
+        <f t="shared" ref="D19:F19" si="0">D10/D8</f>
+        <v>29.166666666666671</v>
+      </c>
+      <c r="E19" s="199">
+        <f t="shared" si="0"/>
+        <v>69.252243270189425</v>
+      </c>
+      <c r="F19" s="193">
+        <f t="shared" si="0"/>
+        <v>44.824175824175825</v>
+      </c>
+      <c r="G19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="188" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="202">
+        <f>C17/C8</f>
+        <v>181.93325661680092</v>
+      </c>
+      <c r="D20" s="202">
+        <f>D17/D8</f>
+        <v>103.03030303030305</v>
+      </c>
+      <c r="E20" s="202">
+        <f>E17/E8</f>
+        <v>224.76729855947747</v>
+      </c>
+      <c r="F20" s="214">
+        <f>F17/F8</f>
+        <v>145.48278054830845</v>
+      </c>
+      <c r="G20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="188" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="199">
+        <f>'Financials + KPIs'!R15/C16</f>
+        <v>0.28308823529411764</v>
+      </c>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199">
+        <f>H11/E16</f>
+        <v>0.30810640032613129</v>
+      </c>
+      <c r="F21" s="193"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="188" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="199">
+        <f>C13/C5</f>
+        <v>2.80765290750226</v>
+      </c>
+      <c r="D22" s="199">
+        <f>D13/D5</f>
+        <v>1.8337254901960784</v>
+      </c>
+      <c r="E22" s="199">
+        <f>E13/E5</f>
+        <v>4.8726800126922187</v>
+      </c>
+      <c r="F22" s="215">
+        <f>F13/F5</f>
+        <v>2.4829194559904626</v>
+      </c>
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="188" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="196">
+        <f>C22*C11</f>
+        <v>269.69719795119016</v>
+      </c>
+      <c r="D23" s="196">
+        <f>D22*C11</f>
+        <v>176.14379084967322</v>
+      </c>
+      <c r="E23" s="196">
+        <f>E22*E11</f>
+        <v>404.62734825396188</v>
+      </c>
+      <c r="F23" s="216">
+        <f>F22*E11</f>
+        <v>206.18163162544803</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="188" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="196">
+        <f>C23*C14</f>
+        <v>33.885176257909016</v>
+      </c>
+      <c r="D24" s="196">
+        <f>D23*D14</f>
+        <v>7.0329411764705894</v>
+      </c>
+      <c r="E24" s="196">
+        <f>E23*E14</f>
+        <v>61.675040545732465</v>
+      </c>
+      <c r="F24" s="216"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="201">
+        <f>C23/C6</f>
+        <v>3.8392153221613449E-3</v>
+      </c>
+      <c r="D25" s="201">
+        <f>D23/D6</f>
+        <v>3.3882276501754904E-3</v>
+      </c>
+      <c r="E25" s="201">
+        <f>E23/E6</f>
+        <v>5.759983889277444E-3</v>
+      </c>
+      <c r="F25" s="217">
+        <f>F23/F6</f>
+        <v>3.9660228831332458E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="188" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="201">
+        <f>C23/C7</f>
+        <v>7.7744940314554672E-4</v>
+      </c>
+      <c r="D26" s="201">
+        <f>D23/D7</f>
+        <v>3.1920747287079971E-4</v>
+      </c>
+      <c r="E26" s="201">
+        <f>E23/E7</f>
+        <v>1.1664091907003802E-3</v>
+      </c>
+      <c r="F26" s="217">
+        <f>F23/F7</f>
+        <v>3.736419959288024E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="194" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="203">
+        <f>C13/C8</f>
+        <v>0.53616800920598384</v>
+      </c>
+      <c r="D27" s="203">
+        <f>D13/D8</f>
+        <v>0.30363636363636365</v>
+      </c>
+      <c r="E27" s="203">
+        <f>E13/E8</f>
+        <v>0.80620264018571641</v>
+      </c>
+      <c r="F27" s="218">
+        <f>F13/F8</f>
+        <v>0.5218223581957977</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="aQMiFaDwuLZXUJOqmecqy1P0x59J/m2AHh77i7QIZ0mc9PU+oJNGvaED/UGZKxXsjqEmLon+keLZWdmziY9TNg==" saltValue="/QypNBc1yw6tcviRvFQveA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D18 D23:E23" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>